--- a/DIPAK/RTO & RMA DATA.xlsx
+++ b/DIPAK/RTO & RMA DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14040" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14040"/>
   </bookViews>
   <sheets>
     <sheet name="RETURN DATA" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Defective damage'!$A$1:$P$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'RETURN DATA'!$A$1:$O$333</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'RETURN DATA'!$A$1:$O$331</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="112">
   <si>
     <t>Order No.</t>
   </si>
@@ -282,7 +282,91 @@
     <t>WATCH</t>
   </si>
   <si>
-    <t>handover date- 12/DECEMBER/2024</t>
+    <t>A24AUSHAHIPU002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTUMN LANE </t>
+  </si>
+  <si>
+    <t>KURTA SET</t>
+  </si>
+  <si>
+    <t>7X100102365</t>
+  </si>
+  <si>
+    <t>WCK25200237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALVIN KLEIN </t>
+  </si>
+  <si>
+    <t>NIKIL</t>
+  </si>
+  <si>
+    <t>7X100105524</t>
+  </si>
+  <si>
+    <t>I45972637</t>
+  </si>
+  <si>
+    <t>I45972297</t>
+  </si>
+  <si>
+    <t>FMADIQ9051004</t>
+  </si>
+  <si>
+    <t>ADIDAS</t>
+  </si>
+  <si>
+    <t>COR507DREG999009</t>
+  </si>
+  <si>
+    <t>A24VG940581002</t>
+  </si>
+  <si>
+    <t>SSB_1130222</t>
+  </si>
+  <si>
+    <t>HANDBAG</t>
+  </si>
+  <si>
+    <t>JEANS</t>
+  </si>
+  <si>
+    <t>LEYELINER</t>
+  </si>
+  <si>
+    <t>COSMETIC</t>
+  </si>
+  <si>
+    <t>LIFE</t>
+  </si>
+  <si>
+    <t>LAKME</t>
+  </si>
+  <si>
+    <t>GUESS</t>
+  </si>
+  <si>
+    <t>HANDOVER DATE- 14/DECEMBER/2024</t>
+  </si>
+  <si>
+    <t>DEVKI</t>
+  </si>
+  <si>
+    <t>IRFAN</t>
+  </si>
+  <si>
+    <t>ASMAL</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>SITARAM</t>
+  </si>
+  <si>
+    <t>LAXMI</t>
   </si>
 </sst>
 </file>
@@ -304,13 +388,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -339,6 +416,12 @@
       <sz val="20"/>
       <name val="Bell MT"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -457,34 +540,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -493,30 +573,30 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -524,7 +604,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -536,10 +616,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -849,13 +932,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O333"/>
+  <dimension ref="A1:O331"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,47 +957,47 @@
     <col min="16" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:14" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="24" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1270,7 +1350,7 @@
       <c r="E10" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="32">
         <v>8905943317302</v>
       </c>
       <c r="G10" s="13">
@@ -1311,7 +1391,7 @@
       <c r="E11" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="32">
         <v>8905509663171</v>
       </c>
       <c r="G11" s="13">
@@ -1352,7 +1432,7 @@
       <c r="E12" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="32">
         <v>4067982665036</v>
       </c>
       <c r="G12" s="13">
@@ -1393,7 +1473,7 @@
       <c r="E13" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="32">
         <v>890582295979</v>
       </c>
       <c r="G13" s="13">
@@ -1425,16 +1505,16 @@
       <c r="B14" s="12">
         <v>45637</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="7">
         <v>434906095</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="7">
         <v>17856564464</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="32">
         <v>890582297456</v>
       </c>
       <c r="G14" s="13">
@@ -1443,16 +1523,21 @@
       <c r="H14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J14" s="34" t="s">
+      <c r="J14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="K14" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="M14" s="12"/>
+      <c r="L14" s="12">
+        <v>45640</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
@@ -1461,16 +1546,16 @@
       <c r="B15" s="12">
         <v>45637</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="7">
         <v>434191441</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="7">
         <v>17856563646</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="32">
         <v>8905724531354</v>
       </c>
       <c r="G15" s="13">
@@ -1479,66 +1564,226 @@
       <c r="H15" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="34" t="s">
+      <c r="I15" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J15" s="34" t="s">
+      <c r="J15" s="7" t="s">
         <v>79</v>
       </c>
       <c r="K15" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="M15" s="12"/>
+      <c r="L15" s="12">
+        <v>45640</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>182</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="13"/>
-      <c r="M16" s="12"/>
+      <c r="B16" s="12">
+        <v>45639</v>
+      </c>
+      <c r="C16" s="13">
+        <v>432359302</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="13">
+        <v>1</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="12">
+        <v>45640</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>182</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="13"/>
-      <c r="M17" s="12"/>
+      <c r="B17" s="12">
+        <v>45639</v>
+      </c>
+      <c r="C17" s="7">
+        <v>435484484</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="13">
+        <v>1</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="12">
+        <v>45640</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>182</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="13"/>
-      <c r="M18" s="12"/>
+      <c r="B18" s="12">
+        <v>45639</v>
+      </c>
+      <c r="C18" s="7">
+        <v>432980645</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="13">
+        <v>1</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L18" s="12">
+        <v>45640</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>182</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="13"/>
-      <c r="M19" s="12"/>
+      <c r="B19" s="12">
+        <v>45639</v>
+      </c>
+      <c r="C19" s="7">
+        <v>433952700</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="13">
+        <v>1</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L19" s="12">
+        <v>45640</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>182</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="13"/>
-      <c r="M20" s="12"/>
+      <c r="B20" s="12">
+        <v>45639</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="7">
+        <v>17856603804</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="14">
+        <v>205820956</v>
+      </c>
+      <c r="G20" s="13">
+        <v>1</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L20" s="12">
+        <v>45640</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
@@ -1609,6 +1854,7 @@
       <c r="I27" s="12"/>
       <c r="J27" s="13"/>
       <c r="M27" s="12"/>
+      <c r="N27" s="19"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
@@ -1619,6 +1865,7 @@
       <c r="I28" s="12"/>
       <c r="J28" s="13"/>
       <c r="M28" s="12"/>
+      <c r="N28" s="19"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
@@ -1658,6 +1905,8 @@
         <v>182</v>
       </c>
       <c r="B32" s="12"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
       <c r="J32" s="13"/>
@@ -1673,20 +1922,19 @@
       <c r="I33" s="12"/>
       <c r="J33" s="13"/>
       <c r="M33" s="12"/>
-      <c r="N33" s="19"/>
+      <c r="O33" s="13" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>182</v>
       </c>
       <c r="B34" s="12"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
       <c r="J34" s="13"/>
       <c r="M34" s="12"/>
-      <c r="N34" s="19"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
@@ -1697,9 +1945,6 @@
       <c r="I35" s="12"/>
       <c r="J35" s="13"/>
       <c r="M35" s="12"/>
-      <c r="O35" s="13" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
@@ -2471,7 +2716,7 @@
       <c r="J112" s="13"/>
       <c r="M112" s="12"/>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="11">
         <v>182</v>
       </c>
@@ -2481,7 +2726,7 @@
       <c r="J113" s="13"/>
       <c r="M113" s="12"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="11">
         <v>182</v>
       </c>
@@ -2491,7 +2736,7 @@
       <c r="J114" s="13"/>
       <c r="M114" s="12"/>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="11">
         <v>182</v>
       </c>
@@ -2501,7 +2746,7 @@
       <c r="J115" s="13"/>
       <c r="M115" s="12"/>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="11">
         <v>182</v>
       </c>
@@ -2509,128 +2754,137 @@
       <c r="H116" s="12"/>
       <c r="I116" s="12"/>
       <c r="J116" s="13"/>
-      <c r="M116" s="12"/>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M116" s="23"/>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="11">
         <v>182</v>
       </c>
-      <c r="B117" s="12"/>
-      <c r="H117" s="12"/>
-      <c r="I117" s="12"/>
+      <c r="H117" s="23"/>
+      <c r="I117" s="23"/>
       <c r="J117" s="13"/>
-      <c r="M117" s="12"/>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M117" s="23"/>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="11">
         <v>182</v>
       </c>
-      <c r="B118" s="12"/>
-      <c r="H118" s="12"/>
-      <c r="I118" s="12"/>
+      <c r="H118" s="23"/>
+      <c r="I118" s="23"/>
       <c r="J118" s="13"/>
-      <c r="M118" s="24"/>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M118" s="23"/>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="11">
         <v>182</v>
       </c>
-      <c r="H119" s="24"/>
-      <c r="I119" s="24"/>
+      <c r="H119" s="23"/>
+      <c r="I119" s="23"/>
       <c r="J119" s="13"/>
-      <c r="M119" s="24"/>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M119" s="23"/>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="11">
         <v>182</v>
       </c>
-      <c r="H120" s="24"/>
-      <c r="I120" s="24"/>
+      <c r="H120" s="23"/>
+      <c r="I120" s="23"/>
       <c r="J120" s="13"/>
-      <c r="M120" s="24"/>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="11">
         <v>182</v>
       </c>
-      <c r="H121" s="24"/>
-      <c r="I121" s="24"/>
+      <c r="B121" s="23"/>
+      <c r="C121" s="22"/>
+      <c r="D121" s="22"/>
+      <c r="E121" s="22"/>
+      <c r="H121" s="22"/>
+      <c r="I121" s="22"/>
       <c r="J121" s="13"/>
-      <c r="M121" s="24"/>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="11">
         <v>182</v>
       </c>
-      <c r="H122" s="24"/>
-      <c r="I122" s="24"/>
+      <c r="B122" s="23"/>
+      <c r="C122" s="22"/>
+      <c r="D122" s="22"/>
+      <c r="E122" s="22"/>
+      <c r="H122" s="22"/>
+      <c r="I122" s="22"/>
       <c r="J122" s="13"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="11">
         <v>182</v>
       </c>
-      <c r="B123" s="24"/>
-      <c r="C123" s="23"/>
-      <c r="D123" s="23"/>
-      <c r="E123" s="23"/>
-      <c r="H123" s="23"/>
-      <c r="I123" s="23"/>
+      <c r="B123" s="23"/>
+      <c r="C123" s="22"/>
+      <c r="D123" s="22"/>
+      <c r="E123" s="22"/>
+      <c r="H123" s="22"/>
+      <c r="I123" s="22"/>
       <c r="J123" s="13"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="11">
         <v>182</v>
       </c>
-      <c r="B124" s="24"/>
-      <c r="C124" s="23"/>
-      <c r="D124" s="23"/>
-      <c r="E124" s="23"/>
-      <c r="H124" s="23"/>
-      <c r="I124" s="23"/>
+      <c r="B124" s="23"/>
+      <c r="C124" s="22"/>
+      <c r="D124" s="22"/>
+      <c r="E124" s="22"/>
+      <c r="H124" s="22"/>
+      <c r="I124" s="22"/>
       <c r="J124" s="13"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="11">
         <v>182</v>
       </c>
-      <c r="B125" s="24"/>
-      <c r="C125" s="23"/>
-      <c r="D125" s="23"/>
-      <c r="E125" s="23"/>
-      <c r="H125" s="23"/>
-      <c r="I125" s="23"/>
+      <c r="B125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
       <c r="J125" s="13"/>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A126" s="11"/>
-      <c r="B126" s="24"/>
-      <c r="C126" s="23"/>
-      <c r="D126" s="23"/>
-      <c r="E126" s="23"/>
-      <c r="H126" s="23"/>
-      <c r="I126" s="23"/>
+      <c r="M125" s="12"/>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A126" s="11">
+        <v>182</v>
+      </c>
+      <c r="B126" s="12"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12"/>
       <c r="J126" s="13"/>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A127" s="11"/>
+      <c r="M126" s="12"/>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A127" s="11">
+        <v>182</v>
+      </c>
       <c r="B127" s="12"/>
       <c r="H127" s="12"/>
       <c r="I127" s="12"/>
       <c r="J127" s="13"/>
       <c r="M127" s="12"/>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A128" s="11"/>
+      <c r="O127" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A128" s="11">
+        <v>182</v>
+      </c>
       <c r="B128" s="12"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
       <c r="H128" s="12"/>
       <c r="I128" s="12"/>
       <c r="J128" s="13"/>
       <c r="M128" s="12"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="11">
         <v>182</v>
       </c>
@@ -2639,11 +2893,8 @@
       <c r="I129" s="12"/>
       <c r="J129" s="13"/>
       <c r="M129" s="12"/>
-      <c r="O129" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="11">
         <v>182</v>
       </c>
@@ -2653,7 +2904,7 @@
       <c r="J130" s="13"/>
       <c r="M130" s="12"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="11">
         <v>182</v>
       </c>
@@ -2663,7 +2914,7 @@
       <c r="J131" s="13"/>
       <c r="M131" s="12"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="11">
         <v>182</v>
       </c>
@@ -2673,7 +2924,7 @@
       <c r="J132" s="13"/>
       <c r="M132" s="12"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="11">
         <v>182</v>
       </c>
@@ -2683,7 +2934,7 @@
       <c r="J133" s="13"/>
       <c r="M133" s="12"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="11">
         <v>182</v>
       </c>
@@ -2693,7 +2944,7 @@
       <c r="J134" s="13"/>
       <c r="M134" s="12"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="11">
         <v>182</v>
       </c>
@@ -2703,7 +2954,7 @@
       <c r="J135" s="13"/>
       <c r="M135" s="12"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="11">
         <v>182</v>
       </c>
@@ -2713,7 +2964,7 @@
       <c r="J136" s="13"/>
       <c r="M136" s="12"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="11">
         <v>182</v>
       </c>
@@ -2723,7 +2974,7 @@
       <c r="J137" s="13"/>
       <c r="M137" s="12"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="11">
         <v>182</v>
       </c>
@@ -2733,7 +2984,7 @@
       <c r="J138" s="13"/>
       <c r="M138" s="12"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="11">
         <v>182</v>
       </c>
@@ -2743,7 +2994,7 @@
       <c r="J139" s="13"/>
       <c r="M139" s="12"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="11">
         <v>182</v>
       </c>
@@ -2753,7 +3004,7 @@
       <c r="J140" s="13"/>
       <c r="M140" s="12"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="11">
         <v>182</v>
       </c>
@@ -2763,7 +3014,7 @@
       <c r="J141" s="13"/>
       <c r="M141" s="12"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="11">
         <v>182</v>
       </c>
@@ -2773,7 +3024,7 @@
       <c r="J142" s="13"/>
       <c r="M142" s="12"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="11">
         <v>182</v>
       </c>
@@ -2783,7 +3034,7 @@
       <c r="J143" s="13"/>
       <c r="M143" s="12"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="11">
         <v>182</v>
       </c>
@@ -2807,21 +3058,19 @@
       <c r="A146" s="11">
         <v>182</v>
       </c>
-      <c r="B146" s="12"/>
-      <c r="H146" s="12"/>
-      <c r="I146" s="12"/>
+      <c r="H146" s="16"/>
+      <c r="I146" s="16"/>
       <c r="J146" s="13"/>
-      <c r="M146" s="12"/>
+      <c r="M146" s="16"/>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="11">
         <v>182</v>
       </c>
-      <c r="B147" s="12"/>
-      <c r="H147" s="12"/>
-      <c r="I147" s="12"/>
+      <c r="H147" s="16"/>
+      <c r="I147" s="16"/>
       <c r="J147" s="13"/>
-      <c r="M147" s="12"/>
+      <c r="M147" s="16"/>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="11">
@@ -3250,6 +3499,8 @@
       <c r="A195" s="11">
         <v>182</v>
       </c>
+      <c r="D195" s="14"/>
+      <c r="E195" s="14"/>
       <c r="H195" s="16"/>
       <c r="I195" s="16"/>
       <c r="J195" s="13"/>
@@ -3268,8 +3519,6 @@
       <c r="A197" s="11">
         <v>182</v>
       </c>
-      <c r="D197" s="14"/>
-      <c r="E197" s="14"/>
       <c r="H197" s="16"/>
       <c r="I197" s="16"/>
       <c r="J197" s="13"/>
@@ -3315,6 +3564,8 @@
       <c r="A202" s="11">
         <v>182</v>
       </c>
+      <c r="D202" s="14"/>
+      <c r="E202" s="14"/>
       <c r="H202" s="16"/>
       <c r="I202" s="16"/>
       <c r="J202" s="13"/>
@@ -3333,8 +3584,6 @@
       <c r="A204" s="11">
         <v>182</v>
       </c>
-      <c r="D204" s="14"/>
-      <c r="E204" s="14"/>
       <c r="H204" s="16"/>
       <c r="I204" s="16"/>
       <c r="J204" s="13"/>
@@ -4262,19 +4511,13 @@
       <c r="A307" s="11">
         <v>182</v>
       </c>
-      <c r="H307" s="16"/>
-      <c r="I307" s="16"/>
       <c r="J307" s="13"/>
-      <c r="M307" s="16"/>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" s="11">
         <v>182</v>
       </c>
-      <c r="H308" s="16"/>
-      <c r="I308" s="16"/>
       <c r="J308" s="13"/>
-      <c r="M308" s="16"/>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" s="11">
@@ -4406,26 +4649,14 @@
       <c r="A330" s="11">
         <v>182</v>
       </c>
-      <c r="J330" s="13"/>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" s="11">
         <v>182</v>
       </c>
-      <c r="J331" s="13"/>
-    </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A332" s="11">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A333" s="11">
-        <v>182</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O333"/>
+  <autoFilter ref="A1:O331"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <customProperties>
@@ -4439,7 +4670,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4463,51 +4694,51 @@
     <col min="18" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:16" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="27" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="P1" s="27" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4524,7 +4755,7 @@
       <c r="D2" s="18">
         <v>17856471972</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="33" t="s">
         <v>73</v>
       </c>
       <c r="F2" s="18" t="s">
@@ -4566,22 +4797,22 @@
       <c r="B3" s="12">
         <v>45637</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="33">
         <v>434899588</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="33">
         <v>17856590235</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="33" t="s">
         <v>73</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="34">
         <v>4067981779871</v>
       </c>
-      <c r="H3" s="35">
+      <c r="H3" s="34">
         <v>4067981779871</v>
       </c>
       <c r="I3" s="4">
@@ -4613,22 +4844,22 @@
       <c r="B4" s="12">
         <v>45637</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="33">
         <v>433447218</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="33" t="s">
         <v>74</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="34" t="s">
         <v>67</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -4654,11 +4885,51 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="20"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="A5" s="11">
+        <v>182</v>
+      </c>
+      <c r="B5" s="12">
+        <v>45639</v>
+      </c>
+      <c r="C5" s="1">
+        <v>435534894</v>
+      </c>
+      <c r="D5" s="1">
+        <v>17856613416</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="4">
+        <v>6499</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
@@ -4668,7 +4939,7 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="21"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -4689,28 +4960,28 @@
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="21"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="1"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="21"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="21"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="21"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -4766,7 +5037,7 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="22"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -4780,7 +5051,6 @@
       <c r="F22" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <customProperties>
@@ -4791,29 +5061,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:I7"/>
+  <dimension ref="A4:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="37" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.5703125" style="37" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="37"/>
+    <col min="1" max="1" width="17.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.5703125" style="36" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
@@ -4824,88 +5094,229 @@
       <c r="H4" s="41"/>
       <c r="I4" s="41"/>
     </row>
-    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>45637</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="37">
         <v>434906095</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="37">
         <v>17856564464</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="38">
         <v>890582297456</v>
       </c>
       <c r="E6" s="11">
         <v>1</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="37" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="38"/>
-    </row>
-    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="37"/>
+    </row>
+    <row r="7" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>45637</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="37">
         <v>434191441</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="37">
         <v>17856563646</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="38">
         <v>8905724531354</v>
       </c>
       <c r="E7" s="11">
         <v>1</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="37" t="s">
         <v>79</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="I7" s="38"/>
+      <c r="I7" s="37"/>
+    </row>
+    <row r="8" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>45639</v>
+      </c>
+      <c r="B8" s="13">
+        <v>432359302</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="13">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>45639</v>
+      </c>
+      <c r="B9" s="7">
+        <v>435484484</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="13">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>45639</v>
+      </c>
+      <c r="B10" s="7">
+        <v>432980645</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="13">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>45639</v>
+      </c>
+      <c r="B11" s="7">
+        <v>433952700</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="13">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11"/>
+    </row>
+    <row r="12" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>45639</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="7">
+        <v>17856603804</v>
+      </c>
+      <c r="D12" s="14">
+        <v>205820956</v>
+      </c>
+      <c r="E12" s="13">
+        <v>1</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
